--- a/BoM/BOM.xlsx
+++ b/BoM/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jover\Documents\SnekBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jover\Documents\SnekBot\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233CC93F-5B60-4CC9-A626-042F794E5C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3CFE9-ED3C-4367-9238-219B340625DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2610" windowWidth="23550" windowHeight="15345" xr2:uid="{BA75932F-6AAA-4AC2-BEE1-9B426E9D2872}"/>
+    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{BA75932F-6AAA-4AC2-BEE1-9B426E9D2872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,13 +465,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734081A9-B9DE-49AE-93F1-4F06AA90FAFA}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,17 +828,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1237,7 +1237,7 @@
         <f t="shared" si="0"/>
         <v>27.42</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1800,14 +1800,14 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="4">
         <f>SUM(G4:G33)</f>
         <v>670.92074999999988</v>

--- a/BoM/BOM.xlsx
+++ b/BoM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jover\Documents\SnekBot\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3CFE9-ED3C-4367-9238-219B340625DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FECDA55-6CDA-4C15-AF8D-50B253BCDC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{BA75932F-6AAA-4AC2-BEE1-9B426E9D2872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -149,9 +149,6 @@
     <t>XT60 Connectors</t>
   </si>
   <si>
-    <t>Pcs Needed</t>
-  </si>
-  <si>
     <t>https://www.jaycar.com.au/light-duty-hook-up-wire-pack-8-colours/p/WH3009</t>
   </si>
   <si>
@@ -330,13 +327,26 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Snekbot Only</t>
+  </si>
+  <si>
+    <t>xbox Controller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.au/Xbox-Wireless-Controller-Carbon-Black/dp/B08K3FVP5N/ref=asc_df_B08K3FVP5N?mcid=185c79384d403135af405638ac8b88ac&amp;tag=googleshopdsk-22&amp;linkCode=df0&amp;hvadid=712357196393&amp;hvpos=&amp;hvnetw=g&amp;hvrand=1315101169948403061&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9068964&amp;hvtargid=pla-1171919002557&amp;gad_source=1&amp;th=1</t>
+  </si>
+  <si>
+    <t>Pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -391,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -451,6 +461,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -458,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -472,6 +519,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -809,18 +868,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734081A9-B9DE-49AE-93F1-4F06AA90FAFA}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -845,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -1153,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1184,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1218,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1238,7 +1297,7 @@
         <v>27.42</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1269,7 +1328,7 @@
         <v>39.950000000000003</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,10 +1336,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1300,7 +1359,7 @@
         <v>1.57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1331,7 +1390,7 @@
         <v>1.57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1339,10 +1398,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1362,7 +1421,7 @@
         <v>1.57</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1370,10 +1429,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1393,7 +1452,7 @@
         <v>8.01</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1424,7 +1483,7 @@
         <v>27.18</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -1455,7 +1514,7 @@
         <v>3.49</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,10 +1522,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1486,7 +1545,7 @@
         <v>10.4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1494,10 +1553,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1517,7 +1576,7 @@
         <v>5.68</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,10 +1584,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1548,7 +1607,7 @@
         <v>1.8220000000000001</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,10 +1615,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1579,7 +1638,7 @@
         <v>1.01</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,10 +1646,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1610,7 +1669,7 @@
         <v>1.43</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1618,10 +1677,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1641,7 +1700,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1649,10 +1708,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1672,7 +1731,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1680,10 +1739,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -1703,7 +1762,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,10 +1770,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -1734,7 +1793,7 @@
         <v>1.3920000000000001</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1742,10 +1801,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1765,18 +1824,18 @@
         <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1796,32 +1855,80 @@
         <v>51.9</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>89</v>
+      </c>
+      <c r="G34" s="13">
+        <f>D34/E34*F34</f>
+        <v>89</v>
+      </c>
+      <c r="H34" s="13">
+        <f>(ROUNDUP(D34/E34,0)*F34)</f>
+        <v>89</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="4">
+        <f>SUM(G4:G34)</f>
+        <v>759.92074999999988</v>
+      </c>
+      <c r="H35" s="4">
+        <f>SUM(H4:H34)</f>
+        <v>828.83100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4">
-        <f>SUM(G4:G33)</f>
-        <v>670.92074999999988</v>
-      </c>
-      <c r="H34" s="4">
-        <f>SUM(H4:H33)</f>
-        <v>739.83100000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="4">
+        <f>SUM(G4,G5,G6,G7,G9,G15,G16,G17,G18,G19,G20,G23, G33,G34)</f>
+        <v>439.1797499999999</v>
+      </c>
+      <c r="H36" s="4">
+        <f>SUM(H4,H5,H6,H7,H9,H15,H16,H17,H18,H19,H20,H23, H33,H34)</f>
+        <v>492.08999999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" xr:uid="{589E3B5D-B06E-4AC0-BB3D-D71DBE9F7571}"/>
